--- a/BalanceSheet/LVS_bal.xlsx
+++ b/BalanceSheet/LVS_bal.xlsx
@@ -1930,19 +1930,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>26000000.0</v>
+        <v>98000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5000000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-66000000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>149000000.0</v>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>-148000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>7000000.0</v>
+        <v>-59000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>-143000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>-139000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>-110000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>183000000.0</v>
